--- a/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/1.0/report-checklist.xlsx
@@ -662,13 +662,13 @@
 </t>
   </si>
   <si>
-    <t>2025-01-20T13:52:06GMT</t>
-  </si>
-  <si>
-    <t>2072bae4dea554c5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.f6faede3f8aae9063e9b4708dd04ae6bceacdd3b6e183c224474c4ff19738577.c1dea2ce0a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-03-05T14:27:44Z</t>
+  </si>
+  <si>
+    <t>0b2d8f2b2bd3dc80</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.1b2db2e196^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -878,7 +878,7 @@
     <font>
       <b val="1"/>
       <sz val="14"/>
-      <color indexed="13"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -900,7 +900,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="13"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -939,7 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -966,11 +966,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -979,7 +979,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -987,17 +987,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -1014,7 +1014,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -1022,12 +1022,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,105 +1047,94 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="medium">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="12"/>
       </left>
       <right style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="12"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="13"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="13"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
         <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -1176,13 +1176,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,28 +1248,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1307,7 +1307,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1319,7 +1319,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1337,13 +1337,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,7 +1367,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,26 +1376,26 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,10 +1404,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1416,13 +1416,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1431,16 +1431,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,7 +1449,7 @@
         <color indexed="8"/>
       </left>
       <right style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -1461,10 +1461,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -1476,7 +1476,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -1572,10 +1572,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,7 +1584,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -1596,7 +1596,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -1612,26 +1612,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,28 +1663,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1702,20 +1702,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1974,8 +1974,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff4472c4"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffd9e2f3"/>
@@ -3013,7 +3013,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3211,16 +3211,19 @@
       <c r="D20" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21">
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" ht="13" customHeight="1">
+      <c r="A21" s="7"/>
       <c r="B21" t="s" s="3">
         <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" ht="13" customHeight="1">
+      <c r="A22" s="20"/>
       <c r="B22" s="4"/>
       <c r="C22" t="s" s="4">
         <v>5</v>
@@ -3228,6 +3231,7 @@
       <c r="D22" t="s" s="5">
         <v>16</v>
       </c>
+      <c r="E22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3237,11 +3241,12 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Riepilogo di esportazione'!R1C1" tooltip="" display="Riepilogo di esportazione"/>
     <hyperlink ref="D10" location="'Istruzioni Compilazione'!R1C1" tooltip="" display="Istruzioni Compilazione"/>
-    <hyperlink ref="D12" location="'Prerequisiti'!R1C1" tooltip="" display="Prerequisiti"/>
-    <hyperlink ref="D14" location="'TestCases'!R1C1" tooltip="" display="TestCases"/>
-    <hyperlink ref="D16" location="'LISTA VALORI'!R1C1" tooltip="" display="LISTA VALORI"/>
-    <hyperlink ref="D18" location="'Summary'!R1C1" tooltip="" display="Summary"/>
-    <hyperlink ref="D20" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
+    <hyperlink ref="D12" location="'Istruzioni Compilazione'!R1C1" tooltip="" display="Istruzioni Compilazione"/>
+    <hyperlink ref="D14" location="'Prerequisiti'!R1C1" tooltip="" display="Prerequisiti"/>
+    <hyperlink ref="D16" location="'TestCases'!R1C1" tooltip="" display="TestCases"/>
+    <hyperlink ref="D18" location="'LISTA VALORI'!R1C1" tooltip="" display="LISTA VALORI"/>
+    <hyperlink ref="D20" location="'Summary'!R1C1" tooltip="" display="Summary"/>
+    <hyperlink ref="D22" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
     <hyperlink ref="D12" location="'Istruzioni Compilazione'!R1C1" tooltip="" display="Istruzioni Compilazione"/>
     <hyperlink ref="D14" location="'Prerequisiti'!R1C1" tooltip="" display="Prerequisiti"/>
     <hyperlink ref="D16" location="'TestCases'!R1C1" tooltip="" display="TestCases"/>
@@ -4766,7 +4771,7 @@
         <v>114</v>
       </c>
       <c r="F30" s="78">
-        <v>46011</v>
+        <v>45721</v>
       </c>
       <c r="G30" t="s" s="83">
         <v>115</v>

--- a/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/1.0/report-checklist.xlsx
@@ -532,7 +532,7 @@
     <t>Qualcosa è andato storto. Timeout durante la comunicazione con il servizio.</t>
   </si>
   <si>
-    <t>Visualizzazione del messaggio di errore per informare il medico. L'invio viene interrotto.</t>
+    <t>Viene visualizzato  al medico il messaggio di errore della colonna O. L’invio viene interrotto e segnalato com errore. Sarà il medico stesso a ritentare l’invio.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_PSS_CT5_KO</t>

--- a/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/1.0/report-checklist.xlsx
@@ -3989,7 +3989,7 @@
         <v>68</v>
       </c>
       <c r="R12" t="s" s="79">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="79">
         <v>78</v>
